--- a/2022/Price List/Realme Price List 01.04.2022.xlsx
+++ b/2022/Price List/Realme Price List 01.04.2022.xlsx
@@ -238,7 +238,7 @@
     <t xml:space="preserve"> GT NEO  2(8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 24-03-2021)</t>
+    <t xml:space="preserve"> (Last Update 04-04-2021)</t>
   </si>
 </sst>
 </file>
@@ -3488,8 +3488,8 @@
   </sheetPr>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,30 +3543,30 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>8690</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>9190</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>10650</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>11290</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3583,16 +3583,16 @@
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>10700</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>11290</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3625,31 +3625,31 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>12980</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>13690</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
-        <v>14880</v>
-      </c>
-      <c r="D13" s="14">
-        <v>15690</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>38</v>
+      <c r="C13" s="19">
+        <v>14240</v>
+      </c>
+      <c r="D13" s="18">
+        <v>14990</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/2022/Price List/Realme Price List 01.04.2022.xlsx
+++ b/2022/Price List/Realme Price List 01.04.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Model</t>
   </si>
@@ -220,9 +220,6 @@
     <t xml:space="preserve"> 8 (8GB+128GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8Pro (8GB+128GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 9i (4GB+64GB)</t>
   </si>
   <si>
@@ -232,13 +229,22 @@
     <t xml:space="preserve"> Narzo 30 (6GB+128GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> GT Master </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GT NEO  2(8+128 GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (Last Update 04-04-2021)</t>
+    <t>New Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C31 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 12-04-2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo 50(4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GT Master (8+128GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GT NEO 2 (8+128 GB)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -634,12 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -835,13 +835,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>313490</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>294250</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -859,7 +859,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="513515" y="9966174"/>
+          <a:off x="437315" y="10366224"/>
           <a:ext cx="4886135" cy="244738"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="189" cy="262"/>
@@ -3162,28 +3162,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3486,15 +3486,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
@@ -3503,30 +3503,30 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -3553,7 +3553,7 @@
         <v>9190</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>11290</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,27 +3584,27 @@
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="15">
-        <v>10700</v>
+        <v>10780</v>
       </c>
       <c r="D9" s="14">
-        <v>11290</v>
+        <v>11490</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="15">
-        <v>10780</v>
+        <v>11950</v>
       </c>
       <c r="D10" s="14">
-        <v>11490</v>
+        <v>12790</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>38</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="15">
-        <v>11950</v>
+        <v>12980</v>
       </c>
       <c r="D11" s="14">
-        <v>12790</v>
+        <v>13690</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>38</v>
@@ -3626,30 +3626,30 @@
     </row>
     <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="15">
-        <v>12980</v>
+        <v>14240</v>
       </c>
       <c r="D12" s="14">
-        <v>13690</v>
+        <v>14990</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C13" s="19">
-        <v>14240</v>
+        <v>12140</v>
       </c>
       <c r="D13" s="18">
-        <v>14990</v>
+        <v>12990</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,132 +3685,135 @@
         <v>53</v>
       </c>
       <c r="C16" s="15">
-        <v>25890</v>
+        <v>16340</v>
       </c>
       <c r="D16" s="14">
-        <f>27990</f>
-        <v>27990</v>
-      </c>
-      <c r="E16" s="27"/>
+        <v>17490</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="15">
-        <v>16340</v>
+        <v>18210</v>
       </c>
       <c r="D17" s="14">
-        <v>17490</v>
+        <v>19490</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="15">
-        <v>18210</v>
+        <v>18790</v>
       </c>
       <c r="D18" s="14">
-        <v>19490</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>38</v>
-      </c>
+        <v>19990</v>
+      </c>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="15">
+        <v>10700</v>
+      </c>
+      <c r="D19" s="14">
+        <v>11290</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="19">
+        <v>15700</v>
+      </c>
+      <c r="D20" s="18">
+        <v>16499</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="15">
-        <v>18790</v>
-      </c>
-      <c r="D19" s="14">
-        <v>19990</v>
-      </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="2:5" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15">
+        <v>31990</v>
+      </c>
+      <c r="D21" s="14">
+        <v>33990</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C22" s="15">
-        <v>31990</v>
+        <v>37340</v>
       </c>
       <c r="D22" s="14">
-        <v>33990</v>
+        <v>39990</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="15">
-        <v>37340</v>
-      </c>
-      <c r="D23" s="14">
-        <v>39990</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
+    <row r="23" spans="2:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>40</v>
       </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="42"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="42"/>
+      <c r="E25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B25" numberStoredAsText="1"/>
+    <ignoredError sqref="B24" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/2022/Price List/Realme Price List 01.04.2022.xlsx
+++ b/2022/Price List/Realme Price List 01.04.2022.xlsx
@@ -3489,7 +3489,7 @@
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Price List/Realme Price List 01.04.2022.xlsx
+++ b/2022/Price List/Realme Price List 01.04.2022.xlsx
@@ -235,9 +235,6 @@
     <t xml:space="preserve"> C31 (4GB+64GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 12-04-2021)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Narzo 50(4GB+64GB)</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve"> GT NEO 2 (8+128 GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Last Update 24-04-2021)</t>
   </si>
 </sst>
 </file>
@@ -3488,8 +3488,8 @@
   </sheetPr>
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B4" s="43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="19">
         <v>15700</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="21" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="15">
         <v>31990</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="22" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="15">
         <v>37340</v>
